--- a/map/mouse/map.xlsx
+++ b/map/mouse/map.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10421\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github_repo\scDeepSort\map\mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B32779-E81F-4D97-91E2-EF12FF9FE062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6200" xr2:uid="{6172F80C-F49D-471B-9559-828623947755}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="170">
   <si>
     <t>mouse_Blood768_data.csv</t>
   </si>
@@ -34,7 +33,7 @@
   </si>
   <si>
     <t>Basophil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Blood1109_data.csv</t>
@@ -44,7 +43,7 @@
   </si>
   <si>
     <t>Natural killer cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Blood1223_data.csv</t>
@@ -60,7 +59,7 @@
   </si>
   <si>
     <t>Monocyte progenitor cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Bone_marrow467_data.csv</t>
@@ -103,7 +102,7 @@
   </si>
   <si>
     <t>Macrophage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Brain19431_data.csv</t>
@@ -113,7 +112,7 @@
   </si>
   <si>
     <t>Oligodendrocyte precursor cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Astrocyte</t>
@@ -138,11 +137,11 @@
   </si>
   <si>
     <t>Interneuron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pyramidal SS neuron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pyramidal CA1 neuron</t>
@@ -155,18 +154,18 @@
   </si>
   <si>
     <t>mouse_Brain2502_data.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Brain2502_data.csv</t>
   </si>
   <si>
     <t>Glutamatergic neuron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GABAergic neuron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Brain2545_data.csv</t>
@@ -182,7 +181,7 @@
   </si>
   <si>
     <t>Neuron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Glutamatergic neuron</t>
@@ -234,18 +233,18 @@
   </si>
   <si>
     <t>Epithelial cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Epithelial cell</t>
   </si>
   <si>
     <t>Columnar epithelium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Epithelium of small intestinal villi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Intestine260_data.csv</t>
@@ -255,7 +254,7 @@
   </si>
   <si>
     <t>Follicle associated epithelium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Intestine1449_data.csv</t>
@@ -271,11 +270,11 @@
   </si>
   <si>
     <t>Intercalated cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Principal cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Distal collecting duct principal cell</t>
@@ -288,26 +287,26 @@
   </si>
   <si>
     <t>mouse_Kidney7926_data.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Proximal tubule cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Endothelial cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Endothelial cell</t>
   </si>
   <si>
     <t>Fenestrated endothelial cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ascending limb of the loop of Henle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Thick ascending limb of the loop of Henle</t>
@@ -317,7 +316,7 @@
   </si>
   <si>
     <t>mouse_Kidney1435_data.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Loop of henle</t>
@@ -363,11 +362,11 @@
   </si>
   <si>
     <t>Neutrophil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Neutrophil granulocyte</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alveolar macrophage</t>
@@ -377,7 +376,7 @@
   </si>
   <si>
     <t>Dendritic cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dendritic cell</t>
@@ -393,7 +392,7 @@
   </si>
   <si>
     <t>T cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T cell</t>
@@ -412,18 +411,18 @@
   </si>
   <si>
     <t>Luminal cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Luminal cell</t>
   </si>
   <si>
     <t>Ductal luminal cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Pancreas1354_data.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Beta cell</t>
@@ -433,7 +432,7 @@
   </si>
   <si>
     <t>Ductal cell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Pancreas1354_data.csv</t>
@@ -476,7 +475,7 @@
   </si>
   <si>
     <t>Preleptotene spermatogonia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Testis8792_data.csv</t>
@@ -485,14 +484,11 @@
     <t>Spermatocyte</t>
   </si>
   <si>
-    <t>mouse_Testis9923_data.csv</t>
-  </si>
-  <si>
     <t>Spermatid</t>
   </si>
   <si>
     <t>Elongating spermatid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Testis6598_data.csv</t>
@@ -517,85 +513,85 @@
   </si>
   <si>
     <t>Spermatogonia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tissue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Test Datasets</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Celltype</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Training dataset cell type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Blood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bone_marrow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Brain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fetal_brain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Intestine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Kidney</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Liver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mammary_gland</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pancreas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spleen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Testis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mouse_Testis299_data.csv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,13 +600,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -627,15 +616,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,10 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,45 +982,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A125A0-EBB2-4E5A-A82C-B717561110CD}">
-  <dimension ref="A1:E135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="31.4140625" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>768</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1037,11 +1031,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="2">
         <v>1109</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1054,11 +1048,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2">
         <v>1223</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1071,11 +1065,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="2">
         <v>1610</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1088,11 +1082,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2">
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1105,11 +1099,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2">
         <v>467</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1122,11 +1116,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2">
         <v>467</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1139,11 +1133,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="2">
         <v>467</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1156,11 +1150,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2">
         <v>467</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1173,11 +1167,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="2">
         <v>467</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1190,11 +1184,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2">
         <v>467</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1207,11 +1201,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2">
         <v>467</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1224,11 +1218,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="2">
         <v>467</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1241,11 +1235,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2">
         <v>467</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1258,11 +1252,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="2">
         <v>467</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1275,11 +1269,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="2">
         <v>19431</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1292,11 +1286,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="2">
         <v>19431</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1309,11 +1303,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="2">
         <v>19431</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1326,11 +1320,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="2">
         <v>19431</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1343,11 +1337,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="2">
         <v>19431</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1360,11 +1354,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="2">
         <v>19431</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1377,11 +1371,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="2">
         <v>2695</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1394,11 +1388,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="2">
         <v>2695</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1411,11 +1405,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="2">
         <v>2695</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1428,11 +1422,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="2">
         <v>2695</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1445,11 +1439,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2">
         <v>2695</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1462,11 +1456,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="2">
         <v>2695</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1479,11 +1473,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="2">
         <v>2695</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1496,11 +1490,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="2">
         <v>2502</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1513,11 +1507,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="2">
         <v>2502</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1530,11 +1524,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="2">
         <v>2502</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1547,11 +1541,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="2">
         <v>2502</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1564,11 +1558,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="2">
         <v>2502</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1581,11 +1575,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="2">
         <v>2502</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1598,11 +1592,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="2">
         <v>2502</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1615,11 +1609,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2">
         <v>2502</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1632,11 +1626,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="2">
         <v>2545</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1649,11 +1643,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="2">
         <v>3005</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1666,11 +1660,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="2">
         <v>4397</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1683,11 +1677,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="2">
         <v>4397</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1700,11 +1694,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="2">
         <v>4397</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1717,11 +1711,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="2">
         <v>4397</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1734,11 +1728,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="2">
         <v>4397</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1751,11 +1745,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="2">
         <v>4397</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1768,11 +1762,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="2">
         <v>4397</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1785,11 +1779,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="2">
         <v>4397</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1802,11 +1796,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="2">
         <v>4397</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1819,11 +1813,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="2">
         <v>4397</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1836,11 +1830,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="2">
         <v>369</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1853,11 +1847,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="2">
         <v>369</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1870,11 +1864,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2">
         <v>369</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1887,11 +1881,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="2">
         <v>369</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1904,11 +1898,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2">
         <v>369</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1921,11 +1915,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="2">
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1938,11 +1932,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="2">
         <v>192</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1955,11 +1949,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2">
         <v>192</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1972,11 +1966,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="2">
         <v>192</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1989,11 +1983,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="2">
         <v>260</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2006,11 +2000,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="2">
         <v>3260</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2023,11 +2017,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="2">
         <v>1449</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2040,11 +2034,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="2">
         <v>529</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2057,11 +2051,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="2">
         <v>203</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2074,11 +2068,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="2">
         <v>203</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2091,11 +2085,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="2">
         <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2108,11 +2102,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="2">
         <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2125,11 +2119,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="2">
         <v>7926</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -2142,11 +2136,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="2">
         <v>7926</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2159,11 +2153,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2">
         <v>7926</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -2176,11 +2170,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="2">
         <v>7926</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -2193,11 +2187,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="2">
         <v>7926</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -2210,11 +2204,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="2">
         <v>7926</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -2227,11 +2221,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="2">
         <v>7926</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2244,11 +2238,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="2">
         <v>7926</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2261,11 +2255,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="2">
         <v>1435</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2278,11 +2272,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="2">
         <v>1435</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -2295,11 +2289,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2">
         <v>1435</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -2312,11 +2306,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="2">
         <v>1435</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2329,11 +2323,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="2">
         <v>1435</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -2346,11 +2340,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="2">
         <v>3729</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2363,11 +2357,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2">
         <v>4122</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2380,11 +2374,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="2">
         <v>7761</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2397,11 +2391,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2">
         <v>18000</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2414,11 +2408,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="2">
         <v>18000</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2431,11 +2425,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="2">
         <v>18000</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2448,11 +2442,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="2">
         <v>769</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2465,11 +2459,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="2">
         <v>707</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2482,11 +2476,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="2">
         <v>1920</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2499,11 +2493,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="2">
         <v>6340</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2516,11 +2510,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="2">
         <v>6340</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2533,11 +2527,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="2">
         <v>6340</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2550,11 +2544,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="2">
         <v>6340</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2567,11 +2561,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2">
         <v>6340</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2584,11 +2578,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="2">
         <v>6340</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2601,11 +2595,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="2">
         <v>6340</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2618,11 +2612,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="2">
         <v>6340</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2635,11 +2629,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="2">
         <v>6340</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2652,11 +2646,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="2">
         <v>6340</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2669,11 +2663,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="2">
         <v>6340</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2686,11 +2680,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="2">
         <v>6340</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2703,11 +2697,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="2">
         <v>6340</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2720,11 +2714,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="2">
         <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2737,11 +2731,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="2">
         <v>133</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2754,11 +2748,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="2">
         <v>1354</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -2771,11 +2765,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="2">
         <v>1354</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -2788,11 +2782,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>167</v>
-      </c>
-      <c r="B106">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="2">
         <v>1354</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -2805,11 +2799,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="2">
         <v>1354</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -2822,11 +2816,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>167</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="2">
         <v>1354</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -2839,11 +2833,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="2">
         <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2856,11 +2850,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="2">
         <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -2873,11 +2867,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2">
         <v>207</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -2890,11 +2884,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="2">
         <v>1759</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -2907,11 +2901,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>168</v>
-      </c>
-      <c r="B113">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="2">
         <v>1433</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -2924,11 +2918,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>168</v>
-      </c>
-      <c r="B114">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="2">
         <v>1081</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -2941,11 +2935,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="2">
         <v>2584</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -2958,11 +2952,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>169</v>
-      </c>
-      <c r="B116">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="2">
         <v>2584</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -2975,11 +2969,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>169</v>
-      </c>
-      <c r="B117">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" s="2">
         <v>2584</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -2992,11 +2986,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="2">
         <v>4239</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3009,11 +3003,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" s="2">
         <v>4239</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3026,11 +3020,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>169</v>
-      </c>
-      <c r="B120">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="2">
         <v>8792</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3043,15 +3037,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>169</v>
-      </c>
-      <c r="B121">
-        <v>9923</v>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6598</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>143</v>
@@ -3060,246 +3054,212 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>169</v>
-      </c>
-      <c r="B122">
-        <v>9923</v>
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6598</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123">
-        <v>6598</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="2">
+        <v>300</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>169</v>
-      </c>
-      <c r="B124">
-        <v>6598</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="2">
+        <v>300</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>169</v>
-      </c>
-      <c r="B125">
-        <v>300</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" s="2">
+        <v>4233</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>169</v>
-      </c>
-      <c r="B126">
-        <v>300</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1662</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127">
-        <v>4233</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1662</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="2">
+        <v>299</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="2">
+        <v>299</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="2">
+        <v>199</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>169</v>
-      </c>
-      <c r="B128">
-        <v>1662</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>169</v>
-      </c>
-      <c r="B129">
-        <v>1662</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>169</v>
-      </c>
-      <c r="B130">
-        <v>299</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131">
-        <v>299</v>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" s="2">
+        <v>398</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132">
-        <v>199</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" s="2">
+        <v>296</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133">
-        <v>398</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="2">
+        <v>296</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134">
-        <v>296</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>169</v>
-      </c>
-      <c r="B135">
-        <v>296</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E135" s="2" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
